--- a/Optimisation_Spreadsheet_v3.xlsx
+++ b/Optimisation_Spreadsheet_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shakeelsubratty/PycharmProjects/optimisation/venv/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BF3D8F-69D2-D14A-A106-931E1B4D5590}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91804796-27C3-7C4C-B1D6-2A98DCAB75CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{5A44FB99-32D9-7941-96CE-1A742DBA76D8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{5A44FB99-32D9-7941-96CE-1A742DBA76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Employees!$A$1:$H$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Payrolls!$A$1:$L$1235</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7561" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7559" uniqueCount="1360">
   <si>
     <t>Employee</t>
   </si>
@@ -4529,7 +4529,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5359,8 +5359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BA9D2-15BC-DE4B-B138-2CB506C7A197}">
   <dimension ref="A1:M1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A1086" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1105" sqref="E1105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34194,8 +34194,8 @@
       <c r="D701" t="s">
         <v>1302</v>
       </c>
-      <c r="E701" t="s">
-        <v>1303</v>
+      <c r="E701" s="4">
+        <v>3</v>
       </c>
       <c r="F701" s="5">
         <f t="shared" si="33"/>
@@ -50891,8 +50891,8 @@
       <c r="D1105" t="s">
         <v>1302</v>
       </c>
-      <c r="E1105" t="s">
-        <v>1303</v>
+      <c r="E1105" s="4">
+        <v>3</v>
       </c>
       <c r="F1105" s="5">
         <f t="shared" si="53"/>

--- a/Optimisation_Spreadsheet_v3.xlsx
+++ b/Optimisation_Spreadsheet_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shakeelsubratty/PycharmProjects/optimisation/venv/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91804796-27C3-7C4C-B1D6-2A98DCAB75CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52551524-7D74-F84D-9BA5-54EBB3185E90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" activeTab="1" xr2:uid="{5A44FB99-32D9-7941-96CE-1A742DBA76D8}"/>
   </bookViews>
@@ -18,7 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Employees!$A$1:$H$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Payrolls!$A$1:$L$1235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Payrolls!$F:$F</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">Payrolls!$P:$P</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7559" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7561" uniqueCount="1362">
   <si>
     <t>Employee</t>
   </si>
@@ -4116,6 +4117,12 @@
   </si>
   <si>
     <t>Paydate Period</t>
+  </si>
+  <si>
+    <t>Capacity per person</t>
+  </si>
+  <si>
+    <t>Unique Due Dates</t>
   </si>
 </sst>
 </file>
@@ -4180,7 +4187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4191,6 +4198,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5357,10 +5365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BA9D2-15BC-DE4B-B138-2CB506C7A197}">
-  <dimension ref="A1:M1235"/>
+  <dimension ref="A1:Q1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1086" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1105" sqref="E1105"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5377,9 +5385,11 @@
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" customWidth="1"/>
+    <col min="17" max="17" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -5419,8 +5429,14 @@
       <c r="M1" s="2" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P1" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -5460,8 +5476,14 @@
       <c r="M2" s="5">
         <v>43677</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P2" s="5">
+        <v>43651</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -5501,8 +5523,14 @@
       <c r="M3" s="5">
         <v>43677</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P3" s="5">
+        <v>43652</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -5542,8 +5570,14 @@
       <c r="M4" s="5">
         <v>43671</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P4" s="5">
+        <v>43653</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5583,8 +5617,14 @@
       <c r="M5" s="5">
         <v>43665</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P5" s="5">
+        <v>43656</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -5624,8 +5664,14 @@
       <c r="M6" s="5">
         <v>43665</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P6" s="5">
+        <v>43657</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -5665,8 +5711,14 @@
       <c r="M7" s="5">
         <v>43682</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P7" s="5">
+        <v>43658</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -5706,8 +5758,14 @@
       <c r="M8" s="5">
         <v>43672</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P8" s="5">
+        <v>43659</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -5747,8 +5805,14 @@
       <c r="M9" s="5">
         <v>43682</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P9" s="5">
+        <v>43660</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -5788,8 +5852,14 @@
       <c r="M10" s="5">
         <v>43671</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P10" s="5">
+        <v>43663</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -5829,8 +5899,14 @@
       <c r="M11" s="5">
         <v>43672</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P11" s="5">
+        <v>43664</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -5870,8 +5946,14 @@
       <c r="M12" s="5">
         <v>43677</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P12" s="5">
+        <v>43665</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -5911,8 +5993,14 @@
       <c r="M13" s="5">
         <v>43677</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P13" s="5">
+        <v>43666</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -5952,8 +6040,14 @@
       <c r="M14" s="5">
         <v>43671</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P14" s="5">
+        <v>43667</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -5993,8 +6087,14 @@
       <c r="M15" s="5">
         <v>43671</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P15" s="5">
+        <v>43670</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -6034,8 +6134,14 @@
       <c r="M16" s="5">
         <v>43672</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P16" s="5">
+        <v>43671</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -6075,8 +6181,14 @@
       <c r="M17" s="5">
         <v>43676</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P17" s="5">
+        <v>43672</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -6116,8 +6228,14 @@
       <c r="M18" s="5">
         <v>43677</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P18" s="5">
+        <v>43673</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -6157,8 +6275,14 @@
       <c r="M19" s="5">
         <v>43677</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P19" s="5">
+        <v>43674</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -6198,8 +6322,14 @@
       <c r="M20" s="5">
         <v>43671</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="P20" s="5">
+        <v>43677</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -6240,7 +6370,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -6281,7 +6411,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -6322,7 +6452,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -6363,7 +6493,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -6404,7 +6534,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -6445,7 +6575,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -6489,7 +6619,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -6530,7 +6660,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -6571,7 +6701,7 @@
         <v>43669</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -6612,7 +6742,7 @@
         <v>43672</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -6653,7 +6783,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -56265,9 +56395,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1235" xr:uid="{07DAF44C-BC51-4F20-A98B-39A7F000D6F3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1240">
-    <sortCondition ref="A2:A1240"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:P21">
+    <sortCondition ref="P1"/>
   </sortState>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
